--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="26000" windowHeight="17440" tabRatio="673" activeTab="5"/>
+    <workbookView xWindow="1240" yWindow="0" windowWidth="26000" windowHeight="17440" tabRatio="673" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sets" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Hyperparams" sheetId="4" r:id="rId4"/>
     <sheet name="TB_trainsize_rf" sheetId="5" r:id="rId5"/>
     <sheet name="TB_trainsize_en" sheetId="6" r:id="rId6"/>
+    <sheet name="TB_trainsize_penls" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
   <si>
     <t>Data Set</t>
   </si>
@@ -142,12 +143,18 @@
   <si>
     <t>train+test</t>
   </si>
+  <si>
+    <t>Not Transformed</t>
+  </si>
+  <si>
+    <t>RBF(kernel)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +214,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -263,12 +275,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,12 +306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -305,6 +332,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -323,6 +353,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -949,11 +982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134884104"/>
-        <c:axId val="2136650664"/>
+        <c:axId val="-2123630984"/>
+        <c:axId val="-2123627944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134884104"/>
+        <c:axId val="-2123630984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136650664"/>
+        <c:crossAx val="-2123627944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -970,7 +1003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136650664"/>
+        <c:axId val="-2123627944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134884104"/>
+        <c:crossAx val="-2123630984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1622,11 +1655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130424568"/>
-        <c:axId val="2130425976"/>
+        <c:axId val="-2123594920"/>
+        <c:axId val="-2123591976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130424568"/>
+        <c:axId val="-2123594920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130425976"/>
+        <c:crossAx val="-2123591976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1643,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130425976"/>
+        <c:axId val="-2123591976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130424568"/>
+        <c:crossAx val="-2123594920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2295,11 +2328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133280744"/>
-        <c:axId val="2133282152"/>
+        <c:axId val="-2123553144"/>
+        <c:axId val="-2123550200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133280744"/>
+        <c:axId val="-2123553144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133282152"/>
+        <c:crossAx val="-2123550200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2316,7 +2349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133282152"/>
+        <c:axId val="-2123550200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +2360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2133280744"/>
+        <c:crossAx val="-2123553144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2968,11 +3001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132232872"/>
-        <c:axId val="2132047544"/>
+        <c:axId val="-2123520232"/>
+        <c:axId val="-2123517288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132232872"/>
+        <c:axId val="-2123520232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,7 +3014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132047544"/>
+        <c:crossAx val="-2123517288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2989,7 +3022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132047544"/>
+        <c:axId val="-2123517288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +3033,1353 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132232872"/>
+        <c:crossAx val="-2123520232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TB_trainsize_penls!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TB_trainsize_penls!$A$2:$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>N. Samples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TB_trainsize_penls!$L$2:$L$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.801999999999908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.506999999999835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.555000000000063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.621000000000322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.649000000000114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625999999999976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.666000000000167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.808999999999969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.769999999999982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.844000000000051</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.892000000000053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.159000000000103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.287000000000035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.183999999999737</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.460000000000037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.642999999999798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.446000000000143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.769000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.827999999999977</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.004999999999884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5329999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.183999999999973</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.471999999999978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9739999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.404999999999971</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.399000000000117</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.395999999999955</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.441000000000032</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.97899999999982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.15999999999985</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.216000000000117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.115999999999989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.663999999999988</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.896999999999933</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.557999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.380999999999859</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9079999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.18100000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.85099999999989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.542000000000145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.85599999999976</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.80200000000014</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.35799999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.67299999999981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.0640000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.83999999999969</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.28200000000016</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.44599999999967</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.18899999999985</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.36299999999987</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.75400000000013</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.50000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.59400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.9680000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.38000000000009</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.95000000000029</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.90199999999981</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.87300000000008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.1380000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.10800000000022</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.8219999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.93799999999984</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.1170000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.58299999999981</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.54699999999978</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.22000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.37299999999963</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.45100000000048</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.73300000000017</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20.46700000000009</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20.33899999999992</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.58799999999975</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.4929999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21.25799999999978</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19.95000000000023</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.50499999999961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21.24500000000035</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.48600000000038</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.48000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.30699999999977</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.54499999999966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23.13499999999972</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23.39500000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25.89500000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.9450000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.6219999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2101864488"/>
+        <c:axId val="-2101861544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2101864488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101861544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2101861544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101864488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TB_trainsize_penls!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TB_trainsize_penls!$A$2:$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>N. Samples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TB_trainsize_penls!$X$2:$X$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="92"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0119999999997162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.012000000000171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.012000000000171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0239999999998872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0149999999998727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0199999999999818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0410000000001673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0209999999997308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0190000000002328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0219999999999345</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0210000000001855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0240000000003419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0240000000003419</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0270000000000437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0280000000002474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0299999999997454</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0339999999996508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0369999999998072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0360000000000582</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0380000000000109</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0419999999999163</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0409999999997126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0509999999999309</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0469999999995707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0529999999998836</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0490000000004329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.054000000000542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0579999999999927</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0650000000000545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0599999999999454</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0619999999998981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0669999999995525</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0770000000002255</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.150000000000091</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.122999999999593</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0779999999999745</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0829999999996289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0839999999998327</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0940000000000509</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0960000000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.105999999999767</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0989999999997053</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.106000000000222</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.112999999999829</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.112999999999829</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11200000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.125999999999749</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.123000000000502</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.13799999999992</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.135999999999967</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.141000000000076</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.144999999999982</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.145999999999731</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.15900000000056</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.161000000000058</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.194999999999709</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.175999999999931</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.182000000000244</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.175000000000182</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.190000000000055</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.182999999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.188999999999851</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.20699999999988</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.199000000000069</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.244000000000142</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.199999999999818</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.314000000000306</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.214000000000397</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.26299999999992</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.240999999999985</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.418999999999869</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.241999999999735</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.251999999999953</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.277999999999793</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.299000000000433</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.275000000000091</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.280000000000201</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.291999999999917</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.333999999999833</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.442999999999757</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.300999999999931</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.309999999999945</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.318999999999505</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.531999999999698</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.345000000000254</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.416999999999917</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.346000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.360999999999876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2102798040"/>
+        <c:axId val="-2102795096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2102798040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102795096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2102795096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2102798040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,6 +4515,75 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3594,46 +5042,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="3" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
@@ -3641,61 +5098,95 @@
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="11">
+        <v>0.11829480000000001</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
+        <v>0.20417150000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="11">
+        <v>0.14870849999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.2232702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15"/>
+      <c r="B7" s="11">
+        <v>439.24270000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>6.8483700000000002E+26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="1"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="4:11">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3712,7 +5203,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3722,51 +5213,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="8"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -3887,10 +5378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3898,20 +5389,31 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3956,31 +5458,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="4"/>
+      <c r="N1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
@@ -4016,7 +5518,7 @@
       <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="N2" t="s">
@@ -4049,7 +5551,7 @@
       <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10715,7 +12217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -10743,31 +12245,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="4"/>
+      <c r="N1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
@@ -10803,7 +12305,7 @@
       <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="N2" t="s">
@@ -10836,7 +12338,7 @@
       <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17481,6 +18983,6793 @@
       <c r="X93">
         <f t="shared" si="3"/>
         <v>3.9000000000669346E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="N1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="B1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="5"/>
+      <c r="N1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>D3+I3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>P3+U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="0">D4+I4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.1999999999943599E-2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.1999999999716199E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X67" si="1">P4+U4</f>
+        <v>1.1999999999716199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.78600000000000103</v>
+      </c>
+      <c r="C5">
+        <v>8.0000000000009005E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.79999999999995497</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1.9999999999953401E-3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.80199999999990768</v>
+      </c>
+      <c r="N5">
+        <v>1.1999999999943599E-2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.2000000000171001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>1.2000000000171001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.50199999999999501</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.50499999999988199</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.9999999999953401E-3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.50699999999983469</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.54999999999999705</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.54899999999997795</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>6.9999999999907896E-3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6.0000000000854899E-3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.55500000000006344</v>
+      </c>
+      <c r="N7">
+        <v>1.2999999999919999E-2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.2000000000171001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>1.2000000000171001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.54600000000000604</v>
+      </c>
+      <c r="C8">
+        <v>6.7000000000000198E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.61700000000018895</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3.0000000000001098E-3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4.0000000001327897E-3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.62100000000032174</v>
+      </c>
+      <c r="N8">
+        <v>2.4000000000000899E-2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2.3999999999887198E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>2.3999999999887198E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C9">
+        <v>2.0000000000006701E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.64400000000000501</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5.0000000000096599E-3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.64900000000011415</v>
+      </c>
+      <c r="N9">
+        <v>1.4000000000009999E-2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.49999999998727E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>1.49999999998727E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.614999999999995</v>
+      </c>
+      <c r="C10">
+        <v>1.9999999999988898E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.61999999999989097</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>6.00000000000023E-3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6.0000000000854899E-3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.62599999999997646</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.65999999999999703</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.65800000000012904</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>7.0000000000049996E-3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.66600000000016724</v>
+      </c>
+      <c r="N11">
+        <v>1.99999999999818E-2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.99999999999818E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>1.99999999999818E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.72400000000000397</v>
+      </c>
+      <c r="C12">
+        <v>7.0999999999999702E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.79999999999995497</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>9.0000000000003393E-3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.80899999999996952</v>
+      </c>
+      <c r="N12">
+        <v>3.9000000000101002E-2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>3.9999999999963599E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1.0000000002037301E-3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>4.1000000000167326E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C13">
+        <v>2.0000000000006701E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.759000000000015</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.0999999999995701E-2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.09999999999673E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.76999999999998225</v>
+      </c>
+      <c r="N13">
+        <v>1.99999999999818E-2</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2.09999999997308E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>2.09999999997308E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.81700000000000705</v>
+      </c>
+      <c r="C14">
+        <v>9.9999999999944599E-4</v>
+      </c>
+      <c r="D14">
+        <v>0.81899999999995998</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.4999999999991501E-2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2.5000000000090901E-2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.84400000000005093</v>
+      </c>
+      <c r="N14">
+        <v>1.9000000000005499E-2</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.9000000000232799E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.00000000009004E-3</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>1.9000000000232799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.87000000000000499</v>
+      </c>
+      <c r="C15">
+        <v>4.9999999999990096E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.87699999999995304</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.4000000000009999E-2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1.5000000000099999E-2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.89200000000005308</v>
+      </c>
+      <c r="N15">
+        <v>2.0999999999958201E-2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2.09999999997308E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1.0000000002037301E-3</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>2.199999999993453E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1.1360000000000099</v>
+      </c>
+      <c r="C16">
+        <v>5.0000000000007799E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.1420000000000501</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.69999999999959E-2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.7000000000052799E-2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.1590000000001028</v>
+      </c>
+      <c r="N16">
+        <v>2.20000000000482E-2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2.1000000000185499E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>2.1000000000185499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1.268</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.26800000000003</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.8999999999991201E-2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1.9000000000005499E-2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1.2870000000000354</v>
+      </c>
+      <c r="N17">
+        <v>2.3000000000024601E-2</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2.3000000000138202E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1.0000000002037301E-3</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>2.4000000000341932E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1.1500000000000099</v>
+      </c>
+      <c r="C18">
+        <v>7.9999999999991207E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.15999999999985</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.5000000000005702E-2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2.3999999999887198E-2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1.1839999999997373</v>
+      </c>
+      <c r="N18">
+        <v>2.3000000000024601E-2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2.3000000000138202E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1.0000000002037301E-3</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>2.4000000000341932E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1.41499999999999</v>
+      </c>
+      <c r="C19">
+        <v>3.0000000000001098E-3</v>
+      </c>
+      <c r="D19">
+        <v>1.42100000000005</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3.9000000000001499E-2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3.8999999999987302E-2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1.4600000000000373</v>
+      </c>
+      <c r="N19">
+        <v>2.1999999999934499E-2</v>
+      </c>
+      <c r="O19">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P19">
+        <v>2.6000000000294701E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>9.9999999974897903E-4</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>2.700000000004368E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.60900000000001</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.60899999999992</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3.3999999999991801E-2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3.39999999998781E-2</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1.6429999999997982</v>
+      </c>
+      <c r="N20">
+        <v>2.6999999999816299E-2</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2.7000000000043701E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1.0000000002037301E-3</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>2.8000000000247431E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1.4179999999999899</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.4139999999999899</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3.0999999999991701E-2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3.2000000000152802E-2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1.4460000000001427</v>
+      </c>
+      <c r="N21">
+        <v>2.8000000000019998E-2</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2.89999999999964E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>9.9999999974897903E-4</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>2.999999999974538E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.73000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>3.9000000000001499E-2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3.8999999999987302E-2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1.7690000000000072</v>
+      </c>
+      <c r="N22">
+        <v>3.4000000000105501E-2</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>3.2999999999901802E-2</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>9.9999999974897903E-4</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>3.3999999999650782E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1.7930000000000099</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.7889999999999899</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>3.9000000000001499E-2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3.8999999999987302E-2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1.8279999999999772</v>
+      </c>
+      <c r="N23">
+        <v>3.1999999999925401E-2</v>
+      </c>
+      <c r="O23">
+        <v>3.9999999999977796E-3</v>
+      </c>
+      <c r="P23">
+        <v>3.6000000000058201E-2</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>9.9999999974897903E-4</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>3.699999999980718E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1.9569999999999901</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.952</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>5.2999999999997299E-2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>5.2999999999883599E-2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2.0049999999998835</v>
+      </c>
+      <c r="N24">
+        <v>3.5999999999830799E-2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>3.4999999999854502E-2</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>9.9999999997635292E-4</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1.0000000002037301E-3</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>3.6000000000058228E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2.47800000000001</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2.4790000000000401</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>5.4000000000001998E-2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5.3999999999859903E-2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>2.5329999999999</v>
+      </c>
+      <c r="N25">
+        <v>3.6000000000058201E-2</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>3.6000000000058201E-2</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>3.8000000000010914E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2.1160000000000099</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2.1159999999999899</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>6.7000000000007304E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>6.7999999999983601E-2</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>2.1839999999999735</v>
+      </c>
+      <c r="N26">
+        <v>4.0999999999940001E-2</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>4.1000000000167298E-2</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>2.00000000018008E-3</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>9.9999999974897903E-4</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>4.1999999999916278E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2.3950000000000098</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2.39499999999998</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>7.6999999999998195E-2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>7.6999999999998195E-2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>2.4719999999999782</v>
+      </c>
+      <c r="N27">
+        <v>3.8999999999987302E-2</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>3.89999999997599E-2</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2.00000000018008E-3</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>4.0999999999712614E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2.64100000000002</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5.88199999999983</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>9.1999999999984497E-2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>9.1999999999870893E-2</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>5.9739999999997009</v>
+      </c>
+      <c r="N28">
+        <v>4.89999999999782E-2</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>4.89999999999782E-2</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>5.0999999999930913E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="C29">
+        <v>1.40000000000011E-2</v>
+      </c>
+      <c r="D29">
+        <v>4.298</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.103000000000009</v>
+      </c>
+      <c r="H29">
+        <v>3.0000000000001098E-3</v>
+      </c>
+      <c r="I29">
+        <v>0.10699999999997099</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>4.4049999999999709</v>
+      </c>
+      <c r="N29">
+        <v>4.4000000000096399E-2</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>4.4999999999617998E-2</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>2.00000000018008E-3</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>4.6999999999570712E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2.8159999999999701</v>
+      </c>
+      <c r="C30">
+        <v>7.9999999999991207E-3</v>
+      </c>
+      <c r="D30">
+        <v>5.29100000000017</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.108000000000004</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.107999999999947</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>5.3990000000001173</v>
+      </c>
+      <c r="N30">
+        <v>5.0999999999930899E-2</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>4.99999999997272E-2</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>3.0000000001564301E-3</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>5.2999999999883633E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3.6279999999999899</v>
+      </c>
+      <c r="C31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.32099999999991</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>7.4999999999988604E-2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>7.5000000000045502E-2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>4.3959999999999555</v>
+      </c>
+      <c r="N31">
+        <v>4.6999999999798099E-2</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>4.7000000000025501E-2</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>2.0000000004074502E-3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>4.9000000000432947E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3.8039999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>4.3420000000001</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>9.8999999999989499E-2</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>9.8999999999932697E-2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>4.4410000000000327</v>
+      </c>
+      <c r="N32">
+        <v>5.2000000000134598E-2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>5.2000000000134598E-2</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>2.0000000004074502E-3</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>5.4000000000542045E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="C33">
+        <v>9.0000000000003393E-3</v>
+      </c>
+      <c r="D33">
+        <v>10.8889999999999</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>9.0000000000003397E-2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>8.9999999999918104E-2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>10.978999999999818</v>
+      </c>
+      <c r="N33">
+        <v>5.6000000000039997E-2</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>5.6000000000039997E-2</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>5.799999999999271E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4.2059999999999897</v>
+      </c>
+      <c r="C34">
+        <v>3.50000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>6.03499999999985</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.123999999999995</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.125</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>6.15999999999985</v>
+      </c>
+      <c r="N34">
+        <v>5.8999999999969098E-2</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>5.9999999999945403E-2</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>6.0000000000854899E-3</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>6.5000000000054542E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4.1100000000000101</v>
+      </c>
+      <c r="C35">
+        <v>6.9999999999996697E-3</v>
+      </c>
+      <c r="D35">
+        <v>4.1210000000000901</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>9.4999999999998905E-2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>9.5000000000027299E-2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>4.2160000000001174</v>
+      </c>
+      <c r="N35">
+        <v>5.7000000000016399E-2</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>5.6999999999788997E-2</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>3.0000000001564301E-3</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>5.999999999994543E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4.6920000000000099</v>
+      </c>
+      <c r="C36">
+        <v>4.4000000000000497E-2</v>
+      </c>
+      <c r="D36">
+        <v>4.74199999999996</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.125</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.125</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>4.86699999999996</v>
+      </c>
+      <c r="N36">
+        <v>5.9999999999945403E-2</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>5.9999999999945403E-2</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1.9999999999527102E-3</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>6.1999999999898116E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3.9689999999999901</v>
+      </c>
+      <c r="C37">
+        <v>2.80000000000005E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.0009999999999799</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.11199999999999501</v>
+      </c>
+      <c r="H37">
+        <v>3.0000000000001098E-3</v>
+      </c>
+      <c r="I37">
+        <v>0.115000000000009</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>4.115999999999989</v>
+      </c>
+      <c r="N37">
+        <v>6.4000000000078203E-2</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>6.3999999999850801E-2</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>2.9999999997016901E-3</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>6.6999999999552487E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4.5130000000000097</v>
+      </c>
+      <c r="C38">
+        <v>2.80000000000005E-2</v>
+      </c>
+      <c r="D38">
+        <v>4.54600000000005</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.117999999999995</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.117999999999938</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>4.6639999999999882</v>
+      </c>
+      <c r="N38">
+        <v>6.9999999999936294E-2</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>7.0000000000163695E-2</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>7.7000000000225541E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4.7030000000000003</v>
+      </c>
+      <c r="C39">
+        <v>1.9999999999999601E-2</v>
+      </c>
+      <c r="D39">
+        <v>4.72699999999986</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0.170000000000016</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.17000000000007301</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>4.8969999999999327</v>
+      </c>
+      <c r="N39">
+        <v>0.14699999999993499</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.14699999999993499</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>3.0000000001564301E-3</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>0.15000000000009142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4.41</v>
+      </c>
+      <c r="C40">
+        <v>1.2999999999999901E-2</v>
+      </c>
+      <c r="D40">
+        <v>4.4289999999998599</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0.12900000000001899</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.12900000000013301</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>4.5579999999999927</v>
+      </c>
+      <c r="N40">
+        <v>0.115000000000009</v>
+      </c>
+      <c r="O40">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P40">
+        <v>0.119999999999891</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>2.9999999997016901E-3</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>0.12299999999959269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5.1409999999999902</v>
+      </c>
+      <c r="C41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D41">
+        <v>5.18399999999997</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.19700000000000301</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.19699999999988899</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>5.380999999999859</v>
+      </c>
+      <c r="N41">
+        <v>7.5000000000045502E-2</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>7.5000000000272807E-2</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>2.9999999997016901E-3</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>7.7999999999974493E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5.6759999999999904</v>
+      </c>
+      <c r="C42">
+        <v>2.80000000000005E-2</v>
+      </c>
+      <c r="D42">
+        <v>6.72399999999993</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.18000000000000699</v>
+      </c>
+      <c r="H42">
+        <v>3.9999999999995603E-3</v>
+      </c>
+      <c r="I42">
+        <v>0.18399999999996899</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>6.9079999999998991</v>
+      </c>
+      <c r="N42">
+        <v>7.6999999999998195E-2</v>
+      </c>
+      <c r="O42">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P42">
+        <v>7.9999999999927199E-2</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>2.9999999997016901E-3</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>8.2999999999628885E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="C43">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>12.949000000000099</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.23199999999999901</v>
+      </c>
+      <c r="H43">
+        <v>3.9999999999995603E-3</v>
+      </c>
+      <c r="I43">
+        <v>0.23199999999997101</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>13.18100000000007</v>
+      </c>
+      <c r="N43">
+        <v>8.0999999999903594E-2</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>8.1000000000130995E-2</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>3.0000000001564301E-3</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>2.9999999997016901E-3</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>8.3999999999832681E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6.8689999999999998</v>
+      </c>
+      <c r="C44">
+        <v>9.2000000000000498E-2</v>
+      </c>
+      <c r="D44">
+        <v>10.635</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0.21600000000000799</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.215999999999894</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>10.850999999999894</v>
+      </c>
+      <c r="N44">
+        <v>8.9000000000169194E-2</v>
+      </c>
+      <c r="O44">
+        <v>1.00000000000122E-3</v>
+      </c>
+      <c r="P44">
+        <v>9.0000000000145505E-2</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>9.4000000000050918E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6.8600000000000101</v>
+      </c>
+      <c r="C45">
+        <v>3.6999999999998999E-2</v>
+      </c>
+      <c r="D45">
+        <v>7.3850000000002201</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.15199999999998701</v>
+      </c>
+      <c r="H45">
+        <v>3.9999999999995603E-3</v>
+      </c>
+      <c r="I45">
+        <v>0.15699999999992501</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>7.5420000000001455</v>
+      </c>
+      <c r="N45">
+        <v>9.2000000000098198E-2</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>9.2000000000098198E-2</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>2.9999999999290598E-3</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>9.600000000000361E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7.5410000000000004</v>
+      </c>
+      <c r="C46">
+        <v>4.3000000000001003E-2</v>
+      </c>
+      <c r="D46">
+        <v>9.6269999999999492</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.22499999999999401</v>
+      </c>
+      <c r="H46">
+        <v>3.9999999999995603E-3</v>
+      </c>
+      <c r="I46">
+        <v>0.22899999999981399</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>9.8559999999997636</v>
+      </c>
+      <c r="N46">
+        <v>0.10200000000008901</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0.10199999999986201</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>4.0000000001327897E-3</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>0.10599999999976742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7.1949999999999896</v>
+      </c>
+      <c r="C47">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D47">
+        <v>8.5879999999999708</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.213999999999999</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.214000000000169</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>8.8020000000001399</v>
+      </c>
+      <c r="N47">
+        <v>9.4000000000050904E-2</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>9.4999999999799897E-2</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>9.899999999970531E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>8.2750000000000092</v>
+      </c>
+      <c r="C48">
+        <v>4.2999999999999303E-2</v>
+      </c>
+      <c r="D48">
+        <v>10.170000000000099</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.18800000000001699</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.18799999999987399</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>10.357999999999974</v>
+      </c>
+      <c r="N48">
+        <v>9.7000000000207406E-2</v>
+      </c>
+      <c r="O48">
+        <v>3.9999999999977796E-3</v>
+      </c>
+      <c r="P48">
+        <v>0.102000000000317</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>0.10600000000022242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>8.1900000000000297</v>
+      </c>
+      <c r="C49">
+        <v>3.2999999999999502E-2</v>
+      </c>
+      <c r="D49">
+        <v>11.462999999999999</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.20999999999998001</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.20999999999980901</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>11.672999999999808</v>
+      </c>
+      <c r="N49">
+        <v>0.108999999999924</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0.108999999999924</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>0.11299999999982942</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7.9979999999999896</v>
+      </c>
+      <c r="C50">
+        <v>6.4000000000000098E-2</v>
+      </c>
+      <c r="D50">
+        <v>15.7040000000002</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.35899999999998</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0.35999999999990001</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>16.0640000000001</v>
+      </c>
+      <c r="N50">
+        <v>9.6999999999980005E-2</v>
+      </c>
+      <c r="O50">
+        <v>1.20000000000005E-2</v>
+      </c>
+      <c r="P50">
+        <v>0.108999999999924</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="1"/>
+        <v>0.11299999999982942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>8.26400000000001</v>
+      </c>
+      <c r="C51">
+        <v>5.0000000000000697E-2</v>
+      </c>
+      <c r="D51">
+        <v>8.5949999999997999</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.24399999999997099</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.244999999999891</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>8.8399999999996908</v>
+      </c>
+      <c r="N51">
+        <v>0.108999999999924</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0.108999999999924</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>4.0000000001327897E-3</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>3.0000000001564301E-3</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>0.11200000000008044</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>9.5450000000000195</v>
+      </c>
+      <c r="C52">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D52">
+        <v>10.598000000000001</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.20199999999999799</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.20199999999999799</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="N52">
+        <v>0.116999999999962</v>
+      </c>
+      <c r="O52">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P52">
+        <v>0.121999999999844</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>3.9999999999054099E-3</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>0.1259999999997494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>9.0020000000000095</v>
+      </c>
+      <c r="C53">
+        <v>2.50000000000004E-2</v>
+      </c>
+      <c r="D53">
+        <v>10.0250000000001</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0.257000000000005</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.25700000000006201</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>10.282000000000162</v>
+      </c>
+      <c r="N53">
+        <v>0.11899999999991499</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0.118000000000393</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="1"/>
+        <v>0.12300000000050214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>6.0999999999999902E-2</v>
+      </c>
+      <c r="D54">
+        <v>10.1039999999998</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.33099999999995999</v>
+      </c>
+      <c r="H54">
+        <v>8.0000000000009005E-3</v>
+      </c>
+      <c r="I54">
+        <v>0.34199999999987102</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>10.445999999999671</v>
+      </c>
+      <c r="N54">
+        <v>0.125</v>
+      </c>
+      <c r="O54">
+        <v>7.9999999999991207E-3</v>
+      </c>
+      <c r="P54">
+        <v>0.13299999999981099</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="1"/>
+        <v>0.13799999999992013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>9.4580000000000304</v>
+      </c>
+      <c r="C55">
+        <v>4.4999999999999901E-2</v>
+      </c>
+      <c r="D55">
+        <v>9.9149999999999601</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0.27400000000000102</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.273999999999887</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>10.188999999999847</v>
+      </c>
+      <c r="N55">
+        <v>0.127999999999929</v>
+      </c>
+      <c r="O55">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P55">
+        <v>0.13099999999985801</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="1"/>
+        <v>0.13599999999996715</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>10.052</v>
+      </c>
+      <c r="C56">
+        <v>2.80000000000005E-2</v>
+      </c>
+      <c r="D56">
+        <v>11.021000000000001</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.34199999999998498</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.34199999999987102</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>11.362999999999872</v>
+      </c>
+      <c r="N56">
+        <v>0.13499999999999099</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0.13599999999996701</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>4.99999999988177E-3</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>0.14100000000007615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>9.4440000000000204</v>
+      </c>
+      <c r="C57">
+        <v>9.4999999999998905E-2</v>
+      </c>
+      <c r="D57">
+        <v>24.317</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.42799999999999699</v>
+      </c>
+      <c r="H57">
+        <v>8.0000000000009005E-3</v>
+      </c>
+      <c r="I57">
+        <v>0.43700000000012601</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>24.754000000000126</v>
+      </c>
+      <c r="N57">
+        <v>0.14100000000007601</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0.139999999999873</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>4.99999999988177E-3</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="1"/>
+        <v>0.14499999999998214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>10.170999999999999</v>
+      </c>
+      <c r="C58">
+        <v>1.2999999999999901E-2</v>
+      </c>
+      <c r="D58">
+        <v>10.183999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.31600000000003098</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.31600000000003098</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>10.50000000000003</v>
+      </c>
+      <c r="N58">
+        <v>0.14000000000009999</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0.14099999999962201</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>4.99999999988177E-3</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>0.14599999999973115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>11.305</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>11.305999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0.28800000000001102</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.28800000000001102</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>11.59400000000001</v>
+      </c>
+      <c r="N59">
+        <v>0.148999999999887</v>
+      </c>
+      <c r="O59">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P59">
+        <v>0.15300000000024699</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>5.0000000001091402E-3</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>6.0000000003128696E-3</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>0.15900000000055986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>10.67</v>
+      </c>
+      <c r="C60">
+        <v>4.9999999999990096E-3</v>
+      </c>
+      <c r="D60">
+        <v>10.673999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0.293999999999983</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0.29400000000009602</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>10.968000000000096</v>
+      </c>
+      <c r="N60">
+        <v>0.15499999999997299</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0.15499999999974501</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>6.0000000003128696E-3</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="1"/>
+        <v>0.16100000000005787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>10.943</v>
+      </c>
+      <c r="C61">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="D61">
+        <v>10.9470000000001</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0.432999999999993</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0.432999999999993</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>11.380000000000093</v>
+      </c>
+      <c r="N61">
+        <v>0.18200000000001601</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0.181999999999789</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1.2000000000171001E-2</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1.2999999999919999E-2</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="1"/>
+        <v>0.19499999999970899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>12.519</v>
+      </c>
+      <c r="C62">
+        <v>3.9999999999995603E-3</v>
+      </c>
+      <c r="D62">
+        <v>12.5210000000002</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.42899999999997401</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0.42900000000008698</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>12.950000000000287</v>
+      </c>
+      <c r="N62">
+        <v>0.163000000000011</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0.163000000000011</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1.2999999999919999E-2</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1.2999999999919999E-2</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="1"/>
+        <v>0.17599999999993099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>11.315</v>
+      </c>
+      <c r="C63">
+        <v>1.9999999999988898E-3</v>
+      </c>
+      <c r="D63">
+        <v>11.3159999999998</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.585999999999956</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0.58600000000001295</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>11.901999999999813</v>
+      </c>
+      <c r="N63">
+        <v>0.17599999999993099</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0.17500000000018201</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>6.0000000000854899E-3</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>0.18200000000024386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>12.522</v>
+      </c>
+      <c r="C64">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D64">
+        <v>12.54</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.33299999999996999</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.33300000000008401</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>12.873000000000083</v>
+      </c>
+      <c r="N64">
+        <v>0.16700000000014401</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0.16800000000012</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>6.0000000000854899E-3</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="1"/>
+        <v>0.17500000000018184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>11.792</v>
+      </c>
+      <c r="C65">
+        <v>1.00000000000122E-3</v>
+      </c>
+      <c r="D65">
+        <v>11.795999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.34300000000001801</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0.342000000000098</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>12.138000000000098</v>
+      </c>
+      <c r="N65">
+        <v>0.174999999999955</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0.17599999999993099</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>1.40000000001237E-2</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1.40000000001237E-2</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>0.19000000000005468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>13.762</v>
+      </c>
+      <c r="C66">
+        <v>9.9999999999944599E-4</v>
+      </c>
+      <c r="D66">
+        <v>13.767000000000101</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.34099999999995101</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0.34100000000012198</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>14.108000000000223</v>
+      </c>
+      <c r="N66">
+        <v>0.17700000000013499</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0.17700000000013499</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>6.0000000000854899E-3</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>5.9999999998581197E-3</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>0.18299999999999311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>13.398</v>
+      </c>
+      <c r="C67">
+        <v>0.10199999999999899</v>
+      </c>
+      <c r="D67">
+        <v>13.4949999999999</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.32699999999999801</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0.32699999999999801</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>13.821999999999898</v>
+      </c>
+      <c r="N67">
+        <v>0.18100000000003999</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0.181999999999789</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="1"/>
+        <v>0.18899999999985084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>14.353</v>
+      </c>
+      <c r="C68">
+        <v>0.20299999999999899</v>
+      </c>
+      <c r="D68">
+        <v>14.554999999999801</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.38299999999998102</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0.38300000000003798</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L93" si="2">D68+I68</f>
+        <v>14.937999999999839</v>
+      </c>
+      <c r="N68">
+        <v>0.192000000000007</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0.192000000000007</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>1.5000000000099999E-2</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>1.49999999998727E-2</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="shared" ref="X68:X93" si="3">P68+U68</f>
+        <v>0.2069999999998797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>14.337</v>
+      </c>
+      <c r="C69">
+        <v>0.115</v>
+      </c>
+      <c r="D69">
+        <v>14.4480000000001</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.66799999999994997</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0.66900000000009596</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="2"/>
+        <v>15.117000000000196</v>
+      </c>
+      <c r="N69">
+        <v>0.19299999999998399</v>
+      </c>
+      <c r="O69">
+        <v>3.9999999999977796E-3</v>
+      </c>
+      <c r="P69">
+        <v>0.192000000000007</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="3"/>
+        <v>0.19900000000006884</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>13.983000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.17499999999999899</v>
+      </c>
+      <c r="D70">
+        <v>14.155999999999899</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.42700000000002097</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0.42699999999990701</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="2"/>
+        <v>14.582999999999807</v>
+      </c>
+      <c r="N70">
+        <v>0.23700000000008001</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0.23700000000008001</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>6.9999999998344702E-3</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="3"/>
+        <v>0.24400000000014185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>14.038</v>
+      </c>
+      <c r="C71">
+        <v>8.6000000000000298E-2</v>
+      </c>
+      <c r="D71">
+        <v>14.1189999999999</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.42799999999999699</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0.42799999999988397</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="2"/>
+        <v>14.546999999999784</v>
+      </c>
+      <c r="N71">
+        <v>0.19399999999996001</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0.19399999999996001</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>5.9999999998581197E-3</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="3"/>
+        <v>0.19999999999981813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>15.636999999999899</v>
+      </c>
+      <c r="C72">
+        <v>0.14599999999999899</v>
+      </c>
+      <c r="D72">
+        <v>15.7840000000001</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0.43799999999998801</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0.43599999999992201</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="2"/>
+        <v>16.220000000000024</v>
+      </c>
+      <c r="N72">
+        <v>0.30400000000008698</v>
+      </c>
+      <c r="O72">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="P72">
+        <v>0.30700000000024402</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="3"/>
+        <v>0.31400000000030587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>17.859000000000002</v>
+      </c>
+      <c r="C73">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D73">
+        <v>18.420999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.52999999999997305</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0.52899999999999603</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="2"/>
+        <v>18.949999999999996</v>
+      </c>
+      <c r="N73">
+        <v>0.20700000000010699</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0.207000000000335</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="3"/>
+        <v>0.21400000000039685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>17.78</v>
+      </c>
+      <c r="C74">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D74">
+        <v>17.943999999999999</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.42900000000008698</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0.42899999999963301</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="2"/>
+        <v>18.372999999999632</v>
+      </c>
+      <c r="N74">
+        <v>0.244999999999891</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0.246000000000095</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1.5999999999849E-2</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>1.6999999999825401E-2</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="3"/>
+        <v>0.26299999999992041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>17.8</v>
+      </c>
+      <c r="C75">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D75">
+        <v>18.026000000000298</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.42600000000004501</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0.42500000000018201</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="2"/>
+        <v>18.45100000000048</v>
+      </c>
+      <c r="N75">
+        <v>0.22800000000006501</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0.22800000000006501</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>1.2999999999919999E-2</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1.2999999999919999E-2</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="3"/>
+        <v>0.240999999999985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>18.103000000000002</v>
+      </c>
+      <c r="C76">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D76">
+        <v>18.3470000000002</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0.38599999999996698</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0.38599999999996698</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="2"/>
+        <v>18.733000000000168</v>
+      </c>
+      <c r="N76">
+        <v>0.41499999999996401</v>
+      </c>
+      <c r="O76">
+        <v>3.0000000000001098E-3</v>
+      </c>
+      <c r="P76">
+        <v>0.41100000000005799</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>7.00000000006185E-3</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="3"/>
+        <v>0.41899999999986881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>19.555999999999901</v>
+      </c>
+      <c r="C77">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D77">
+        <v>19.8760000000002</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.59100000000000796</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0.59099999999989405</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="2"/>
+        <v>20.467000000000095</v>
+      </c>
+      <c r="N77">
+        <v>0.23499999999990001</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0.23399999999992399</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="3"/>
+        <v>0.24199999999973482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>19.536000000000101</v>
+      </c>
+      <c r="C78">
+        <v>0.23899999999999899</v>
+      </c>
+      <c r="D78">
+        <v>19.858999999999899</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.476999999999975</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0.48000000000001802</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="2"/>
+        <v>20.338999999999917</v>
+      </c>
+      <c r="N78">
+        <v>0.244999999999891</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0.24400000000014199</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="3"/>
+        <v>0.25199999999995282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>18.927</v>
+      </c>
+      <c r="C79">
+        <v>0.17800000000000099</v>
+      </c>
+      <c r="D79">
+        <v>19.118999999999701</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.467000000000098</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0.46900000000005099</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="2"/>
+        <v>19.587999999999752</v>
+      </c>
+      <c r="N79">
+        <v>0.26999999999998198</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0.26999999999998198</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="3"/>
+        <v>0.2779999999997928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>18.693000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D80">
+        <v>18.9609999999998</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.52400000000000102</v>
+      </c>
+      <c r="H80">
+        <v>7.9999999999991207E-3</v>
+      </c>
+      <c r="I80">
+        <v>0.53199999999969805</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="2"/>
+        <v>19.492999999999498</v>
+      </c>
+      <c r="N80">
+        <v>0.29099999999993997</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0.29100000000016701</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>8.0000000002655707E-3</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="3"/>
+        <v>0.29900000000043259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>20.383999999999901</v>
+      </c>
+      <c r="C81">
+        <v>0.4</v>
+      </c>
+      <c r="D81">
+        <v>20.799999999999699</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0.45799999999996999</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0.45800000000008401</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="2"/>
+        <v>21.257999999999782</v>
+      </c>
+      <c r="N81">
+        <v>0.26700000000005297</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0.26699999999982499</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>8.0000000002655707E-3</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="3"/>
+        <v>0.27500000000009056</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>19.082000000000001</v>
+      </c>
+      <c r="C82">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D82">
+        <v>19.465000000000099</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0.48499999999990001</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0.485000000000127</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="2"/>
+        <v>19.950000000000227</v>
+      </c>
+      <c r="N82">
+        <v>0.27199999999993502</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0.27199999999993502</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>8.0000000002655707E-3</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="3"/>
+        <v>0.28000000000020059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>20.5</v>
+      </c>
+      <c r="C83">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D83">
+        <v>20.963999999999899</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0.54100000000005399</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0.54099999999971304</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="2"/>
+        <v>21.504999999999612</v>
+      </c>
+      <c r="N83">
+        <v>0.282999999999902</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0.282999999999902</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="3"/>
+        <v>0.29199999999991655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>20.370999999999999</v>
+      </c>
+      <c r="C84">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D84">
+        <v>20.6550000000002</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0.58999999999991803</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0.59000000000014596</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="2"/>
+        <v>21.245000000000346</v>
+      </c>
+      <c r="N84">
+        <v>0.32500000000004498</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0.32600000000002199</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="3"/>
+        <v>0.33399999999983282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>22.283999999999999</v>
+      </c>
+      <c r="C85">
+        <v>9.4999999999998905E-2</v>
+      </c>
+      <c r="D85">
+        <v>23.999000000000301</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0.48700000000007998</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0.48700000000007998</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>24.486000000000381</v>
+      </c>
+      <c r="N85">
+        <v>0.43399999999996902</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0.43399999999974198</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="3"/>
+        <v>0.44299999999975653</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>20.706</v>
+      </c>
+      <c r="C86">
+        <v>0.27200000000000202</v>
+      </c>
+      <c r="D86">
+        <v>21.005000000000098</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0.474999999999909</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0.474999999999909</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>21.480000000000008</v>
+      </c>
+      <c r="N86">
+        <v>0.29099999999993997</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0.29199999999991599</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="3"/>
+        <v>0.30099999999993055</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>20.6419999999999</v>
+      </c>
+      <c r="C87">
+        <v>0.151</v>
+      </c>
+      <c r="D87">
+        <v>20.820999999999898</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0.48599999999999</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0.48599999999987598</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="2"/>
+        <v>21.306999999999775</v>
+      </c>
+      <c r="N87">
+        <v>0.30199999999990701</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0.30099999999993099</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>8.0000000000382005E-3</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="3"/>
+        <v>0.30999999999994554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>22.6</v>
+      </c>
+      <c r="C88">
+        <v>0.26300000000000201</v>
+      </c>
+      <c r="D88">
+        <v>22.879999999999701</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0.65199999999992997</v>
+      </c>
+      <c r="H88">
+        <v>7.9999999999991207E-3</v>
+      </c>
+      <c r="I88">
+        <v>0.66499999999996395</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="2"/>
+        <v>23.544999999999664</v>
+      </c>
+      <c r="N88">
+        <v>0.31099999999992201</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0.31099999999969402</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>8.99999999978718E-3</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>7.9999999998108303E-3</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="3"/>
+        <v>0.31899999999950485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>22.602</v>
+      </c>
+      <c r="C89">
+        <v>2.2999999999999701E-2</v>
+      </c>
+      <c r="D89">
+        <v>22.619000000000099</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0.51200000000005697</v>
+      </c>
+      <c r="H89">
+        <v>4.0000000000013402E-3</v>
+      </c>
+      <c r="I89">
+        <v>0.51599999999962198</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="2"/>
+        <v>23.134999999999721</v>
+      </c>
+      <c r="N89">
+        <v>0.52300000000013802</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0.52299999999968305</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="3"/>
+        <v>0.5319999999996976</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>22.443000000000101</v>
+      </c>
+      <c r="C90">
+        <v>0.32</v>
+      </c>
+      <c r="D90">
+        <v>22.759999999999799</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0.63499999999999102</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0.63500000000021795</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="2"/>
+        <v>23.395000000000017</v>
+      </c>
+      <c r="N90">
+        <v>0.33700000000021602</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0.33600000000024</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="3"/>
+        <v>0.34500000000025455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>25.324000000000002</v>
+      </c>
+      <c r="C91">
+        <v>6.6000000000002501E-2</v>
+      </c>
+      <c r="D91">
+        <v>25.380999999999901</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.51400000000001</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0.51400000000012402</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="2"/>
+        <v>25.895000000000024</v>
+      </c>
+      <c r="N91">
+        <v>0.40500000000019998</v>
+      </c>
+      <c r="O91">
+        <v>3.0000000000001098E-3</v>
+      </c>
+      <c r="P91">
+        <v>0.407999999999902</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="3"/>
+        <v>0.41699999999991655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>26.440000000000101</v>
+      </c>
+      <c r="C92">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="D92">
+        <v>26.447999999999901</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0.49699999999995698</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0.49700000000029798</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="2"/>
+        <v>26.945000000000199</v>
+      </c>
+      <c r="N92">
+        <v>0.33600000000001301</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0.33699999999998898</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>9.0000000000145502E-3</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="3"/>
+        <v>0.34600000000000353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>28.350999999999999</v>
+      </c>
+      <c r="C93">
+        <v>0.34400000000000103</v>
+      </c>
+      <c r="D93">
+        <v>28.684999999999899</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0.93799999999998795</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.93699999999989803</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="2"/>
+        <v>29.621999999999797</v>
+      </c>
+      <c r="N93">
+        <v>0.35200000000008902</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0.35099999999965797</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>9.9999999999909103E-3</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>1.00000000002183E-2</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="3"/>
+        <v>0.36099999999987625</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="26000" windowHeight="17440" tabRatio="673" activeTab="1"/>
+    <workbookView xWindow="1240" yWindow="0" windowWidth="26000" windowHeight="17440" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sets" sheetId="3" r:id="rId1"/>
@@ -5044,7 +5044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5430,7 +5430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X1" activeCellId="1" sqref="A1:A1048576 X1:X1048576"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32640" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8160" yWindow="360" windowWidth="29640" windowHeight="23180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
     <sheet name="Nonlinear" sheetId="2" r:id="rId2"/>
+    <sheet name="Time" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>Built-in LASSO</t>
   </si>
@@ -52,6 +53,12 @@
   <si>
     <t xml:space="preserve">FFEN
 </t>
+  </si>
+  <si>
+    <t>Built-in MATLAB</t>
+  </si>
+  <si>
+    <t>1000K</t>
   </si>
 </sst>
 </file>
@@ -1494,6 +1501,1472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Speed on 10K samples</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVEN 10K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.822944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.692305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.236876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EN 10K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.429947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.595318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.405107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.308914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273.007682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2128912488"/>
+        <c:axId val="-2128827784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2128912488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
+          <c:min val="150.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128827784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="200.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2128827784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="275.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128912488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Speed on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> 100K samples</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVEN 100K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.853974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.440547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.467165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.26927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>637.285421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EN 100K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.390398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.89761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.155938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.56072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1080.383374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2133263224"/>
+        <c:axId val="-2128034040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2133263224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128034040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2128034040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133263224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SVEN speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVEN 1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.187035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.153552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.528636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.861286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVEN 10K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.822944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.692305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.236876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVEN 100K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.853974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.440547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.467165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.26927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>637.285421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2095932856"/>
+        <c:axId val="-2095719592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2095932856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
+          <c:min val="150.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2095719592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2095719592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2095932856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>EN speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EN 1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.053451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.184465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.742434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.352657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EN 10K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.429947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.595318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.405107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.308914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273.007682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EN 100K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.390398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.89761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.155938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.56072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1080.383374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2134648552"/>
+        <c:axId val="-2096077592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2134648552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
+          <c:min val="150.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096077592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2096077592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134648552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Speed on 1K samples</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVEN 1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$11:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$B$11:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.187035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.153552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.528636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.861286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EN 1K</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Time!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Time!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.053451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.184465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.742434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218.352657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2134781512"/>
+        <c:axId val="-2134083688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2134781512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
+          <c:min val="150.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134083688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2134083688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="225.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2134781512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1622,6 +3095,169 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>558800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2348,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2642,6 +4278,322 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="97" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1">
+      <c r="A3" s="2">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.3450999999999999E-2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
+        <v>0.42994700000000002</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
+        <v>5.3903980000000002</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2">
+        <v>89.460205000000002</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1">
+      <c r="A4" s="2">
+        <v>300</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.18446499999999999</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>0.59531800000000001</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <v>12.89761</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2">
+        <v>140.33284</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1">
+      <c r="A5" s="2">
+        <v>600</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.82872800000000002</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <v>5.4051070000000001</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2">
+        <v>33.155937999999999</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2">
+        <v>275.71644600000002</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1">
+      <c r="A6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.742434</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2">
+        <v>3.3089140000000001</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2">
+        <v>61.560720000000003</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2">
+        <v>568.574161</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1">
+      <c r="A7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>218.35265699999999</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2">
+        <v>273.00768199999999</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <v>1080.383374</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="97" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1">
+      <c r="A11" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.18703500000000001</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
+        <v>0.36375000000000002</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
+        <v>4.853974</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2">
+        <v>74.690190000000001</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1">
+      <c r="A12" s="2">
+        <v>300</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.15355199999999999</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2">
+        <v>1.0004729999999999</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>13.440547</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2">
+        <v>165.78567899999999</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1">
+      <c r="A13" s="2">
+        <v>600</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.72402</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
+        <v>1.8229439999999999</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2">
+        <v>32.467165000000001</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2">
+        <v>248.90562199999999</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1">
+      <c r="A14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.52863599999999999</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2">
+        <v>5.6923050000000002</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
+        <v>51.269269999999999</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2">
+        <v>424.43859099999997</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1">
+      <c r="A15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21.861286</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2">
+        <v>77.236875999999995</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
+        <v>637.28542100000004</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
